--- a/Kursmaterial/Microcontroller_STM32F429/Datasheets/Extension_Connectors.xlsx
+++ b/Kursmaterial/Microcontroller_STM32F429/Datasheets/Extension_Connectors.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E4B34-31F9-4B45-8AB3-366ADD97035F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{375E4B34-31F9-4B45-8AB3-366ADD97035F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A2EE73-9A8F-4778-9FA3-A1D4171B14A8}"/>
   <bookViews>
-    <workbookView xWindow="-8430" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="243">
   <si>
     <t>5V</t>
   </si>
@@ -749,6 +749,12 @@
   </si>
   <si>
     <t>5V supply</t>
+  </si>
+  <si>
+    <t>Pin is used by Cable Monitor</t>
+  </si>
+  <si>
+    <t>Piezo Buzzer</t>
   </si>
 </sst>
 </file>
@@ -788,7 +794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,6 +816,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,9 +850,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -852,9 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,6 +878,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1163,100 +1175,101 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>44000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="4"/>
       <c r="G4" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="G5" s="11" t="s">
+      <c r="I4" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="G6" s="12" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:9" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A8" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1265,11 +1278,11 @@
       <c r="E10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>204</v>
       </c>
@@ -1283,7 +1296,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>206</v>
       </c>
@@ -1297,7 +1310,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>208</v>
       </c>
@@ -1311,7 +1324,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>128</v>
       </c>
@@ -1325,46 +1338,46 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>210</v>
       </c>
@@ -1378,7 +1391,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>134</v>
       </c>
@@ -1392,7 +1405,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1403,35 +1416,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>214</v>
       </c>
@@ -1445,17 +1458,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1465,7 +1478,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>134</v>
       </c>
@@ -1479,11 +1492,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1493,11 +1506,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1507,45 +1520,45 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1555,21 +1568,21 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>134</v>
       </c>
@@ -1583,7 +1596,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>125</v>
       </c>
@@ -1597,7 +1610,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>134</v>
       </c>
@@ -1611,7 +1624,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>132</v>
       </c>
@@ -1625,7 +1638,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>139</v>
       </c>
@@ -1639,11 +1652,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1653,7 +1666,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>134</v>
       </c>
@@ -1666,9 +1679,8 @@
       <c r="F38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>134</v>
       </c>
@@ -1682,8 +1694,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>219</v>
       </c>
@@ -1696,85 +1707,75 @@
       <c r="F40" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="D41" s="13" t="s">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D41" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A44" s="5" t="s">
+    </row>
+    <row r="44" spans="1:8" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A44" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -1784,7 +1785,7 @@
       <c r="C48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -1794,7 +1795,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>134</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>131</v>
       </c>
@@ -1822,8 +1823,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="13" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -1833,32 +1834,31 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="15" t="s">
         <v>69</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -1868,7 +1868,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>180</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>134</v>
       </c>
@@ -1896,14 +1896,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>72</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -1913,7 +1916,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>138</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>136</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>134</v>
       </c>
@@ -1955,8 +1958,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D60" s="13" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D60" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -1966,7 +1969,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>182</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>185</v>
       </c>
@@ -1993,9 +1996,8 @@
       <c r="F62" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>187</v>
       </c>
@@ -2008,107 +2010,105 @@
       <c r="F63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="1" t="s">
         <v>190</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="1" t="s">
         <v>192</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="1" t="s">
         <v>196</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>134</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>136</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>136</v>
       </c>
@@ -2150,44 +2150,44 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="1" t="s">
         <v>199</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>134</v>
       </c>
@@ -2201,44 +2201,41 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="1" t="s">
         <v>202</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="6" t="s">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D76" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="13" t="s">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D77" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Kursmaterial/Microcontroller_STM32F429/Datasheets/Extension_Connectors.xlsx
+++ b/Kursmaterial/Microcontroller_STM32F429/Datasheets/Extension_Connectors.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{375E4B34-31F9-4B45-8AB3-366ADD97035F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A2EE73-9A8F-4778-9FA3-A1D4171B14A8}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{375E4B34-31F9-4B45-8AB3-366ADD97035F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{331B437C-5B5D-4778-A859-7856B4367FAC}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -907,6 +907,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,8 +1181,8 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Kursmaterial/Microcontroller_STM32F429/Datasheets/Extension_Connectors.xlsx
+++ b/Kursmaterial/Microcontroller_STM32F429/Datasheets/Extension_Connectors.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{375E4B34-31F9-4B45-8AB3-366ADD97035F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{331B437C-5B5D-4778-A859-7856B4367FAC}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{375E4B34-31F9-4B45-8AB3-366ADD97035F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA792760-C76A-4D0F-B61C-446A9B51D153}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,8 +1181,8 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,7 +1360,7 @@
       <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="15" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1374,7 +1374,7 @@
       <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="15" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2079,7 +2079,7 @@
       <c r="C67" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="15" t="s">
         <v>82</v>
       </c>
       <c r="E67" s="8" t="s">
@@ -2099,7 +2099,7 @@
       <c r="C68" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E68" s="8" t="s">
